--- a/3-13-12/testingData.xlsx
+++ b/3-13-12/testingData.xlsx
@@ -286,11 +286,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="672738488"/>
-        <c:axId val="672745272"/>
+        <c:axId val="639264424"/>
+        <c:axId val="170155576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="672738488"/>
+        <c:axId val="639264424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -318,7 +318,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="672745272"/>
+        <c:crossAx val="170155576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -326,7 +326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="672745272"/>
+        <c:axId val="170155576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,7 +360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="672738488"/>
+        <c:crossAx val="639264424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -535,11 +535,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="672809352"/>
-        <c:axId val="672815016"/>
+        <c:axId val="639248184"/>
+        <c:axId val="639224504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="672809352"/>
+        <c:axId val="639248184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,7 +572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="672815016"/>
+        <c:crossAx val="639224504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -580,7 +580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="672815016"/>
+        <c:axId val="639224504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,7 +610,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="672809352"/>
+        <c:crossAx val="639248184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -780,11 +780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="672845928"/>
-        <c:axId val="672851368"/>
+        <c:axId val="639093352"/>
+        <c:axId val="638841064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="672845928"/>
+        <c:axId val="639093352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,7 +812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="672851368"/>
+        <c:crossAx val="638841064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -820,7 +820,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="672851368"/>
+        <c:axId val="638841064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="672845928"/>
+        <c:crossAx val="639093352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/3-13-12/testingData.xlsx
+++ b/3-13-12/testingData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>2-pk2pk</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>(mA)</t>
+  </si>
+  <si>
+    <t>Load Current</t>
+  </si>
+  <si>
+    <t>Current going through the resistive load</t>
   </si>
 </sst>
 </file>
@@ -286,11 +292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="639264424"/>
-        <c:axId val="170155576"/>
+        <c:axId val="185021528"/>
+        <c:axId val="652123592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="639264424"/>
+        <c:axId val="185021528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -318,7 +324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170155576"/>
+        <c:crossAx val="652123592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -326,7 +332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170155576"/>
+        <c:axId val="652123592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,7 +366,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="639264424"/>
+        <c:crossAx val="185021528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -535,11 +541,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="639248184"/>
-        <c:axId val="639224504"/>
+        <c:axId val="651778536"/>
+        <c:axId val="651784200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="639248184"/>
+        <c:axId val="651778536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,7 +578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="639224504"/>
+        <c:crossAx val="651784200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -580,7 +586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="639224504"/>
+        <c:axId val="651784200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,7 +616,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="639248184"/>
+        <c:crossAx val="651778536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -657,13 +663,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Supply</a:t>
+              <a:t>Load Current</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Current</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -780,11 +781,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="639093352"/>
-        <c:axId val="638841064"/>
+        <c:axId val="651815112"/>
+        <c:axId val="651820552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="639093352"/>
+        <c:axId val="651815112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -812,7 +813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="638841064"/>
+        <c:crossAx val="651820552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -820,7 +821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="638841064"/>
+        <c:axId val="651820552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="639093352"/>
+        <c:crossAx val="651815112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1289,13 +1290,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="4">
@@ -1675,6 +1680,14 @@
       <c r="H19">
         <f t="shared" si="1"/>
         <v>51.04</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
